--- a/rhla_analysis/rhla1_6_exp_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k7.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01433511737806717</v>
+        <v>0.01278406123561723</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3044879957831846</v>
+        <v>0.3045090162781263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2293265132139812</v>
+        <v>0.1737949762389681</v>
       </c>
       <c r="D2" t="n">
-        <v>21.24070474993482</v>
+        <v>23.81942722784715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006391861454739125</v>
+        <v>0.005705106124147504</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3060728779744887</v>
+        <v>0.3061935392659392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2148337595907928</v>
+        <v>0.1581805838424983</v>
       </c>
       <c r="D3" t="n">
-        <v>47.88477975340919</v>
+        <v>53.67008651599671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01078496908751934</v>
+        <v>0.01087436212708201</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3175067945618228</v>
+        <v>0.3175401267276478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2101449275362319</v>
+        <v>0.158520027155465</v>
       </c>
       <c r="D4" t="n">
-        <v>29.43975008043836</v>
+        <v>29.20080488554187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01446407853937134</v>
+        <v>0.01356003504939356</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3814628380570657</v>
+        <v>0.3816275998482997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2237851662404092</v>
+        <v>0.164969450101833</v>
       </c>
       <c r="D5" t="n">
-        <v>26.37311716876541</v>
+        <v>28.14355556296051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008023801388571845</v>
+        <v>0.006502234298788958</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2727544806293653</v>
+        <v>0.2742963045194816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2233589087809037</v>
+        <v>0.1710794297352342</v>
       </c>
       <c r="D6" t="n">
-        <v>33.99317448433414</v>
+        <v>42.18493088915133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01027217280644073</v>
+        <v>0.007896216613231442</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2843839184113691</v>
+        <v>0.2842509682296221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2148337595907928</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>27.68488456824423</v>
+        <v>35.99837519063392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009317141173407918</v>
+        <v>0.00969548432443109</v>
       </c>
       <c r="B8" t="n">
-        <v>0.341890536746118</v>
+        <v>0.3383715638726745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2233589087809037</v>
+        <v>0.1717583163611677</v>
       </c>
       <c r="D8" t="n">
-        <v>36.6947897840068</v>
+        <v>34.89991345971563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004775116752534146</v>
+        <v>0.005322337599116144</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3140961894665959</v>
+        <v>0.3107541490281555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2242114236999148</v>
+        <v>0.1687033265444671</v>
       </c>
       <c r="D9" t="n">
-        <v>65.77769837772146</v>
+        <v>58.38677897466727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002894537156110506</v>
+        <v>0.003625747971473812</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3280790157795458</v>
+        <v>0.3283007075140411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2404092071611253</v>
+        <v>0.1819416157501697</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3442060285719</v>
+        <v>90.54702921907496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007979861701951758</v>
+        <v>0.007753391819018129</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3335918957960529</v>
+        <v>0.3333970629557845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226768968456948</v>
+        <v>0.1758316361167685</v>
       </c>
       <c r="D11" t="n">
-        <v>41.80422020527764</v>
+        <v>43.00015667181967</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k7.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k7.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01278406123561723</v>
+        <v>0.01278406123561722</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3045090162781263</v>
+        <v>0.3045090162781262</v>
       </c>
       <c r="C2" t="n">
         <v>0.1737949762389681</v>
       </c>
       <c r="D2" t="n">
-        <v>23.81942722784715</v>
+        <v>23.81942722784716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005705106124147504</v>
+        <v>0.005705106124147543</v>
       </c>
       <c r="B3" t="n">
         <v>0.3061935392659392</v>
@@ -480,12 +480,12 @@
         <v>0.1581805838424983</v>
       </c>
       <c r="D3" t="n">
-        <v>53.67008651599671</v>
+        <v>53.67008651599635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01087436212708201</v>
+        <v>0.01087436212708197</v>
       </c>
       <c r="B4" t="n">
         <v>0.3175401267276478</v>
@@ -494,12 +494,12 @@
         <v>0.158520027155465</v>
       </c>
       <c r="D4" t="n">
-        <v>29.20080488554187</v>
+        <v>29.20080488554196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01356003504939356</v>
+        <v>0.01356003504939353</v>
       </c>
       <c r="B5" t="n">
         <v>0.3816275998482997</v>
@@ -508,12 +508,12 @@
         <v>0.164969450101833</v>
       </c>
       <c r="D5" t="n">
-        <v>28.14355556296051</v>
+        <v>28.14355556296058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.006502234298788958</v>
+        <v>0.006502234298788988</v>
       </c>
       <c r="B6" t="n">
         <v>0.2742963045194816</v>
@@ -522,12 +522,12 @@
         <v>0.1710794297352342</v>
       </c>
       <c r="D6" t="n">
-        <v>42.18493088915133</v>
+        <v>42.18493088915113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.007896216613231442</v>
+        <v>0.007896216613231401</v>
       </c>
       <c r="B7" t="n">
         <v>0.2842509682296221</v>
@@ -536,12 +536,12 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>35.99837519063392</v>
+        <v>35.9983751906341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00969548432443109</v>
+        <v>0.009695484324431156</v>
       </c>
       <c r="B8" t="n">
         <v>0.3383715638726745</v>
@@ -550,12 +550,12 @@
         <v>0.1717583163611677</v>
       </c>
       <c r="D8" t="n">
-        <v>34.89991345971563</v>
+        <v>34.89991345971539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.005322337599116144</v>
+        <v>0.005322337599116162</v>
       </c>
       <c r="B9" t="n">
         <v>0.3107541490281555</v>
@@ -564,12 +564,12 @@
         <v>0.1687033265444671</v>
       </c>
       <c r="D9" t="n">
-        <v>58.38677897466727</v>
+        <v>58.38677897466707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003625747971473812</v>
+        <v>0.00362574797147379</v>
       </c>
       <c r="B10" t="n">
         <v>0.3283007075140411</v>
@@ -578,7 +578,7 @@
         <v>0.1819416157501697</v>
       </c>
       <c r="D10" t="n">
-        <v>90.54702921907496</v>
+        <v>90.54702921907553</v>
       </c>
     </row>
     <row r="11">
